--- a/GameData/Excel/spell_combine.xlsx
+++ b/GameData/Excel/spell_combine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888EF90-B824-4886-BB53-C81AD08B3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D134F-1071-4A11-BD21-3464297F37AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_combine" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -49,6 +38,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>material_1</t>
+  </si>
+  <si>
+    <t>material_2</t>
+  </si>
+  <si>
+    <t>result_spell</t>
+  </si>
+  <si>
+    <t>재료 스펠 1의 스펠 ID</t>
+  </si>
+  <si>
+    <t>재료 스펠 2의 스펠 ID</t>
+  </si>
+  <si>
+    <t>재료 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 스펠의 스펠 ID</t>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,33 +76,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material_1</t>
-  </si>
-  <si>
-    <t>material_2</t>
-  </si>
-  <si>
-    <t>result_spell</t>
-  </si>
-  <si>
-    <t>재료 스펠 1의 스펠 ID</t>
-  </si>
-  <si>
-    <t>재료 스펠 2의 스펠 ID</t>
-  </si>
-  <si>
-    <t>재료 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 스펠의 스펠 ID</t>
-  </si>
-  <si>
-    <t>결과</t>
+    <t>흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 바위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,25 +622,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z25" sqref="Z25"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -544,33 +649,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -584,137 +689,525 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>10101</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>10101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>20201</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20202</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20203</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20204</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20205</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20206</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20207</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20208</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20209</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20210</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20201</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30101</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20202</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30201</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20202</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30202</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20203</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30301</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20203</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30302</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>20204</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3">
+        <v>30401</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>20204</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10104</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <v>30402</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20205</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30501</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20206</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10102</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>30601</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>20206</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10103</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30602</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20207</v>
+      </c>
+      <c r="B24" s="3">
+        <v>10102</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30701</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>20207</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3">
+        <v>30702</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>20208</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10103</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30801</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>20209</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10103</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30901</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>20209</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10104</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3">
+        <v>30902</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>20210</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10104</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3">
+        <v>31001</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/spell_combine.xlsx
+++ b/GameData/Excel/spell_combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D134F-1071-4A11-BD21-3464297F37AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ABF56E-DC4D-4ED3-A34A-09DE2500E52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -625,8 +625,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>20201</v>
+        <v>20101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>20202</v>
+        <v>20102</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>20204</v>
+        <v>20104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1">
-        <v>20205</v>
+        <v>20105</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="1">
-        <v>20206</v>
+        <v>20106</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -823,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>20207</v>
+        <v>20107</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1">
-        <v>20208</v>
+        <v>20108</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -863,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>20209</v>
+        <v>20109</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1">
-        <v>20210</v>
+        <v>20110</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1212,5 +1212,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/spell_combine.xlsx
+++ b/GameData/Excel/spell_combine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ABF56E-DC4D-4ED3-A34A-09DE2500E52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE3E75E-315D-48B5-9BD5-DDF2E0E35B5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>20201</v>
+        <v>20101</v>
       </c>
       <c r="B14" s="1">
         <v>10101</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>20202</v>
+        <v>20102</v>
       </c>
       <c r="B15" s="1">
         <v>10101</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>20202</v>
+        <v>20102</v>
       </c>
       <c r="B16" s="1">
         <v>10102</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="B17" s="1">
         <v>10101</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="B18" s="1">
         <v>10103</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>20204</v>
+        <v>20104</v>
       </c>
       <c r="B19" s="3">
         <v>10101</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>20204</v>
+        <v>20104</v>
       </c>
       <c r="B20" s="3">
         <v>10104</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20205</v>
+        <v>20105</v>
       </c>
       <c r="B21" s="3">
         <v>10102</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>20206</v>
+        <v>20106</v>
       </c>
       <c r="B22" s="3">
         <v>10102</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>20206</v>
+        <v>20106</v>
       </c>
       <c r="B23" s="3">
         <v>10103</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>20207</v>
+        <v>20107</v>
       </c>
       <c r="B24" s="3">
         <v>10102</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>20207</v>
+        <v>20107</v>
       </c>
       <c r="B25" s="3">
         <v>10104</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>20208</v>
+        <v>20108</v>
       </c>
       <c r="B26" s="3">
         <v>10103</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>20209</v>
+        <v>20109</v>
       </c>
       <c r="B27" s="3">
         <v>10103</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>20209</v>
+        <v>20109</v>
       </c>
       <c r="B28" s="3">
         <v>10104</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>20210</v>
+        <v>20110</v>
       </c>
       <c r="B29" s="3">
         <v>10104</v>

--- a/GameData/Excel/spell_combine.xlsx
+++ b/GameData/Excel/spell_combine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE3E75E-315D-48B5-9BD5-DDF2E0E35B5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40DF7E-CABB-4DF8-8586-0F9E12002DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_combine" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>int</t>
   </si>
@@ -38,21 +49,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material_1</t>
-  </si>
-  <si>
-    <t>material_2</t>
-  </si>
-  <si>
     <t>result_spell</t>
   </si>
   <si>
-    <t>재료 스펠 1의 스펠 ID</t>
-  </si>
-  <si>
-    <t>재료 스펠 2의 스펠 ID</t>
-  </si>
-  <si>
     <t>재료 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +188,108 @@
   </si>
   <si>
     <t>어두운 바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_combine_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101,10101</t>
+  </si>
+  <si>
+    <t>10101,10102</t>
+  </si>
+  <si>
+    <t>10101,10103</t>
+  </si>
+  <si>
+    <t>10101,10104</t>
+  </si>
+  <si>
+    <t>10102,10102</t>
+  </si>
+  <si>
+    <t>10102,10103</t>
+  </si>
+  <si>
+    <t>10102,10104</t>
+  </si>
+  <si>
+    <t>10103,10103</t>
+  </si>
+  <si>
+    <t>10103,10104</t>
+  </si>
+  <si>
+    <t>10104,10104</t>
+  </si>
+  <si>
+    <t>20101,10101</t>
+  </si>
+  <si>
+    <t>20102,10101</t>
+  </si>
+  <si>
+    <t>20102,10102</t>
+  </si>
+  <si>
+    <t>20103,10101</t>
+  </si>
+  <si>
+    <t>20103,10103</t>
+  </si>
+  <si>
+    <t>20104,10101</t>
+  </si>
+  <si>
+    <t>20104,10104</t>
+  </si>
+  <si>
+    <t>20105,10102</t>
+  </si>
+  <si>
+    <t>20106,10102</t>
+  </si>
+  <si>
+    <t>20106,10103</t>
+  </si>
+  <si>
+    <t>20107,10102</t>
+  </si>
+  <si>
+    <t>20107,10104</t>
+  </si>
+  <si>
+    <t>20108,10103</t>
+  </si>
+  <si>
+    <t>20109,10103</t>
+  </si>
+  <si>
+    <t>20109,10104</t>
+  </si>
+  <si>
+    <t>20110,10104</t>
+  </si>
+  <si>
+    <t>matarial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,9 +427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,7 +467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,21 +727,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12" style="3" customWidth="1"/>
+    <col min="1" max="2" width="14.125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="12" style="3" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -649,38 +751,38 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -690,11 +792,11 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10101</v>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -706,507 +808,507 @@
         <v>20101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10102</v>
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>20102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10103</v>
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>20103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10104</v>
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>20104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10102</v>
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>20105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10103</v>
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>20106</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10104</v>
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>20107</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10103</v>
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <v>20108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10104</v>
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>20109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10104</v>
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>20110</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20101</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10101</v>
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>30101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>20102</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10101</v>
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>30201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>20102</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10102</v>
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <v>30202</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>20103</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10101</v>
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3">
         <v>30301</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>20103</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10103</v>
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3">
         <v>30302</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>20104</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10101</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3">
         <v>30401</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>20104</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10104</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>30402</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20105</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10102</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>30501</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>20106</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10102</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>30601</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>20106</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10103</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
         <v>30602</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>20107</v>
-      </c>
-      <c r="B24" s="3">
-        <v>10102</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>30701</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>20107</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10104</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3">
         <v>30702</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>20108</v>
-      </c>
-      <c r="B26" s="3">
-        <v>10103</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3">
         <v>30801</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>20109</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10103</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3">
         <v>30901</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>20109</v>
-      </c>
-      <c r="B28" s="3">
-        <v>10104</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
         <v>30902</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>20110</v>
-      </c>
-      <c r="B29" s="3">
-        <v>10104</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>31001</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
